--- a/outputs/Moments.xlsx
+++ b/outputs/Moments.xlsx
@@ -488,16 +488,16 @@
         <v>6.25</v>
       </c>
       <c r="C3" t="n">
-        <v>26772.94921875001</v>
+        <v>32892.48046875001</v>
       </c>
       <c r="D3" t="n">
-        <v>1777.34375</v>
+        <v>2183.59375</v>
       </c>
       <c r="E3" t="n">
-        <v>1173.046875</v>
+        <v>1441.171875</v>
       </c>
       <c r="F3" t="n">
-        <v>820.3125</v>
+        <v>694.5902301087816</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>12.5</v>
       </c>
       <c r="C4" t="n">
-        <v>45896.48437500001</v>
+        <v>58135.54687500001</v>
       </c>
       <c r="D4" t="n">
-        <v>3046.875</v>
+        <v>3859.375</v>
       </c>
       <c r="E4" t="n">
-        <v>2010.9375</v>
+        <v>2547.1875</v>
       </c>
       <c r="F4" t="n">
-        <v>1406.25</v>
+        <v>1227.647848564358</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>18.75</v>
       </c>
       <c r="C5" t="n">
-        <v>57370.60546875001</v>
+        <v>75729.19921875001</v>
       </c>
       <c r="D5" t="n">
-        <v>3808.59375</v>
+        <v>5027.34375</v>
       </c>
       <c r="E5" t="n">
-        <v>2513.671875</v>
+        <v>3318.046875</v>
       </c>
       <c r="F5" t="n">
-        <v>1757.8125</v>
+        <v>1599.17285536673</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>61195.31250000001</v>
+        <v>85673.43750000001</v>
       </c>
       <c r="D6" t="n">
-        <v>4062.5</v>
+        <v>5687.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2681.25</v>
+        <v>3753.75</v>
       </c>
       <c r="F6" t="n">
-        <v>1875</v>
+        <v>1809.165250515896</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>31.25</v>
       </c>
       <c r="C7" t="n">
-        <v>57370.60546875001</v>
+        <v>87968.26171875001</v>
       </c>
       <c r="D7" t="n">
-        <v>3808.59375</v>
+        <v>5839.84375</v>
       </c>
       <c r="E7" t="n">
-        <v>2513.671875</v>
+        <v>3854.296875</v>
       </c>
       <c r="F7" t="n">
-        <v>1757.8125</v>
+        <v>1857.625034011858</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>37.5</v>
       </c>
       <c r="C8" t="n">
-        <v>45896.48437500001</v>
+        <v>82613.67187500001</v>
       </c>
       <c r="D8" t="n">
-        <v>3046.875</v>
+        <v>5484.375</v>
       </c>
       <c r="E8" t="n">
-        <v>2010.9375</v>
+        <v>3619.6875</v>
       </c>
       <c r="F8" t="n">
-        <v>1406.25</v>
+        <v>1744.552205854614</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>43.75</v>
       </c>
       <c r="C9" t="n">
-        <v>26772.94921875001</v>
+        <v>69609.66796875001</v>
       </c>
       <c r="D9" t="n">
-        <v>1777.34375</v>
+        <v>4621.09375</v>
       </c>
       <c r="E9" t="n">
-        <v>1173.046875</v>
+        <v>3049.921875</v>
       </c>
       <c r="F9" t="n">
-        <v>820.3125</v>
+        <v>1469.946766044166</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>48956.25000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2145</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1033.808714580512</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Moments.xlsx
+++ b/outputs/Moments.xlsx
@@ -488,16 +488,16 @@
         <v>6.25</v>
       </c>
       <c r="C3" t="n">
-        <v>32892.48046875001</v>
+        <v>26772.94921875001</v>
       </c>
       <c r="D3" t="n">
-        <v>2183.59375</v>
+        <v>1777.34375</v>
       </c>
       <c r="E3" t="n">
-        <v>1441.171875</v>
+        <v>1173.046875</v>
       </c>
       <c r="F3" t="n">
-        <v>694.5902301087816</v>
+        <v>820.3125</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>12.5</v>
       </c>
       <c r="C4" t="n">
-        <v>58135.54687500001</v>
+        <v>45896.48437500001</v>
       </c>
       <c r="D4" t="n">
-        <v>3859.375</v>
+        <v>3046.875</v>
       </c>
       <c r="E4" t="n">
-        <v>2547.1875</v>
+        <v>2010.9375</v>
       </c>
       <c r="F4" t="n">
-        <v>1227.647848564358</v>
+        <v>1406.25</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>18.75</v>
       </c>
       <c r="C5" t="n">
-        <v>75729.19921875001</v>
+        <v>57370.60546875001</v>
       </c>
       <c r="D5" t="n">
-        <v>5027.34375</v>
+        <v>3808.59375</v>
       </c>
       <c r="E5" t="n">
-        <v>3318.046875</v>
+        <v>2513.671875</v>
       </c>
       <c r="F5" t="n">
-        <v>1599.17285536673</v>
+        <v>1757.8125</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>85673.43750000001</v>
+        <v>61195.31250000001</v>
       </c>
       <c r="D6" t="n">
-        <v>5687.5</v>
+        <v>4062.5</v>
       </c>
       <c r="E6" t="n">
-        <v>3753.75</v>
+        <v>2681.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1809.165250515896</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>31.25</v>
       </c>
       <c r="C7" t="n">
-        <v>87968.26171875001</v>
+        <v>57370.60546875001</v>
       </c>
       <c r="D7" t="n">
-        <v>5839.84375</v>
+        <v>3808.59375</v>
       </c>
       <c r="E7" t="n">
-        <v>3854.296875</v>
+        <v>2513.671875</v>
       </c>
       <c r="F7" t="n">
-        <v>1857.625034011858</v>
+        <v>1757.8125</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>37.5</v>
       </c>
       <c r="C8" t="n">
-        <v>82613.67187500001</v>
+        <v>45896.48437500001</v>
       </c>
       <c r="D8" t="n">
-        <v>5484.375</v>
+        <v>3046.875</v>
       </c>
       <c r="E8" t="n">
-        <v>3619.6875</v>
+        <v>2010.9375</v>
       </c>
       <c r="F8" t="n">
-        <v>1744.552205854614</v>
+        <v>1406.25</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>43.75</v>
       </c>
       <c r="C9" t="n">
-        <v>69609.66796875001</v>
+        <v>26772.94921875001</v>
       </c>
       <c r="D9" t="n">
-        <v>4621.09375</v>
+        <v>1777.34375</v>
       </c>
       <c r="E9" t="n">
-        <v>3049.921875</v>
+        <v>1173.046875</v>
       </c>
       <c r="F9" t="n">
-        <v>1469.946766044166</v>
+        <v>820.3125</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>48956.25000000001</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3250</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>2145</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1033.808714580512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Moments.xlsx
+++ b/outputs/Moments.xlsx
@@ -488,16 +488,16 @@
         <v>6.25</v>
       </c>
       <c r="C3" t="n">
-        <v>26772.94921875001</v>
+        <v>42707.51953124999</v>
       </c>
       <c r="D3" t="n">
-        <v>1777.34375</v>
+        <v>2589.84375</v>
       </c>
       <c r="E3" t="n">
-        <v>1173.046875</v>
+        <v>1709.296875</v>
       </c>
       <c r="F3" t="n">
-        <v>820.3125</v>
+        <v>788.6372206695694</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>12.5</v>
       </c>
       <c r="C4" t="n">
-        <v>45896.48437500001</v>
+        <v>77041.01562499999</v>
       </c>
       <c r="D4" t="n">
-        <v>3046.875</v>
+        <v>4671.875</v>
       </c>
       <c r="E4" t="n">
-        <v>2010.9375</v>
+        <v>3083.4375</v>
       </c>
       <c r="F4" t="n">
-        <v>1406.25</v>
+        <v>1422.639692188243</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>18.75</v>
       </c>
       <c r="C5" t="n">
-        <v>57370.60546875001</v>
+        <v>103000.48828125</v>
       </c>
       <c r="D5" t="n">
-        <v>3808.59375</v>
+        <v>6246.09375</v>
       </c>
       <c r="E5" t="n">
-        <v>2513.671875</v>
+        <v>4122.421875</v>
       </c>
       <c r="F5" t="n">
-        <v>1757.8125</v>
+        <v>1902.00741455602</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>61195.31250000001</v>
+        <v>120585.9375</v>
       </c>
       <c r="D6" t="n">
-        <v>4062.5</v>
+        <v>7312.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2681.25</v>
+        <v>4826.25</v>
       </c>
       <c r="F6" t="n">
-        <v>1875</v>
+        <v>2226.740387772902</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>31.25</v>
       </c>
       <c r="C7" t="n">
-        <v>57370.60546875001</v>
+        <v>129797.36328125</v>
       </c>
       <c r="D7" t="n">
-        <v>3808.59375</v>
+        <v>7871.09375</v>
       </c>
       <c r="E7" t="n">
-        <v>2513.671875</v>
+        <v>5194.921875</v>
       </c>
       <c r="F7" t="n">
-        <v>1757.8125</v>
+        <v>2396.838611838887</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>37.5</v>
       </c>
       <c r="C8" t="n">
-        <v>45896.48437500001</v>
+        <v>130634.765625</v>
       </c>
       <c r="D8" t="n">
-        <v>3046.875</v>
+        <v>7921.875</v>
       </c>
       <c r="E8" t="n">
-        <v>2010.9375</v>
+        <v>5228.4375</v>
       </c>
       <c r="F8" t="n">
-        <v>1406.25</v>
+        <v>2412.302086753977</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>43.75</v>
       </c>
       <c r="C9" t="n">
-        <v>26772.94921875001</v>
+        <v>123098.14453125</v>
       </c>
       <c r="D9" t="n">
-        <v>1777.34375</v>
+        <v>7464.84375</v>
       </c>
       <c r="E9" t="n">
-        <v>1173.046875</v>
+        <v>4926.796875</v>
       </c>
       <c r="F9" t="n">
-        <v>820.3125</v>
+        <v>2273.13081251817</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>107187.5</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4290</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1979.324789131468</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Moments.xlsx
+++ b/outputs/Moments.xlsx
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.25</v>
+        <v>8.75</v>
       </c>
       <c r="C3" t="n">
-        <v>42707.51953124999</v>
+        <v>57445.80078124999</v>
       </c>
       <c r="D3" t="n">
-        <v>2589.84375</v>
+        <v>3483.59375</v>
       </c>
       <c r="E3" t="n">
-        <v>1709.296875</v>
+        <v>2299.171875</v>
       </c>
       <c r="F3" t="n">
-        <v>788.6372206695694</v>
+        <v>1060.794379175146</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="C4" t="n">
-        <v>77041.01562499999</v>
+        <v>98478.51562499997</v>
       </c>
       <c r="D4" t="n">
-        <v>4671.875</v>
+        <v>5971.875</v>
       </c>
       <c r="E4" t="n">
-        <v>3083.4375</v>
+        <v>3941.4375</v>
       </c>
       <c r="F4" t="n">
-        <v>1422.639692188243</v>
+        <v>1818.504650014537</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>18.75</v>
+        <v>26.25</v>
       </c>
       <c r="C5" t="n">
-        <v>103000.48828125</v>
+        <v>123098.14453125</v>
       </c>
       <c r="D5" t="n">
-        <v>6246.09375</v>
+        <v>7464.84375</v>
       </c>
       <c r="E5" t="n">
-        <v>4122.421875</v>
+        <v>4926.796875</v>
       </c>
       <c r="F5" t="n">
-        <v>1902.00741455602</v>
+        <v>2273.13081251817</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>120585.9375</v>
+        <v>131304.6875</v>
       </c>
       <c r="D6" t="n">
-        <v>7312.5</v>
+        <v>7962.5</v>
       </c>
       <c r="E6" t="n">
-        <v>4826.25</v>
+        <v>5255.25</v>
       </c>
       <c r="F6" t="n">
-        <v>2226.740387772902</v>
+        <v>2424.672866686049</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.25</v>
+        <v>43.75</v>
       </c>
       <c r="C7" t="n">
-        <v>129797.36328125</v>
+        <v>123098.14453125</v>
       </c>
       <c r="D7" t="n">
-        <v>7871.09375</v>
+        <v>7464.84375</v>
       </c>
       <c r="E7" t="n">
-        <v>5194.921875</v>
+        <v>4926.796875</v>
       </c>
       <c r="F7" t="n">
-        <v>2396.838611838887</v>
+        <v>2273.13081251817</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.5</v>
+        <v>52.5</v>
       </c>
       <c r="C8" t="n">
-        <v>130634.765625</v>
+        <v>98478.51562499997</v>
       </c>
       <c r="D8" t="n">
-        <v>7921.875</v>
+        <v>5971.875</v>
       </c>
       <c r="E8" t="n">
-        <v>5228.4375</v>
+        <v>3941.4375</v>
       </c>
       <c r="F8" t="n">
-        <v>2412.302086753977</v>
+        <v>1818.504650014537</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43.75</v>
+        <v>61.25</v>
       </c>
       <c r="C9" t="n">
-        <v>123098.14453125</v>
+        <v>57445.80078124999</v>
       </c>
       <c r="D9" t="n">
-        <v>7464.84375</v>
+        <v>3483.59375</v>
       </c>
       <c r="E9" t="n">
-        <v>4926.796875</v>
+        <v>2299.171875</v>
       </c>
       <c r="F9" t="n">
-        <v>2273.13081251817</v>
+        <v>1060.794379175146</v>
       </c>
     </row>
     <row r="10">
@@ -625,19 +625,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C10" t="n">
-        <v>107187.5</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>4290</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1979.324789131468</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/Moments.xlsx
+++ b/outputs/Moments.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tunepal-my.sharepoint.com/personal/bishal2_742416_thc_tu_edu_np/Documents/Project Documentation/outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{8A33F6F4-2133-477C-946D-FDE3921BCABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16526D26-AB84-43C1-B4D0-F5E21E5E7295}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Section at</t>
+  </si>
+  <si>
+    <t>Dead Load</t>
+  </si>
+  <si>
+    <t>Other Loads</t>
+  </si>
+  <si>
+    <t>Surface Loads</t>
+  </si>
+  <si>
+    <t>Pedestrian Load</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,224 +403,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Section at</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dead Load</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Other Loads</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Surface Loads</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pedestrian Load</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C2" s="2">
+        <v>7.2799999999999997E-12</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.7280000000000001E-12</v>
+      </c>
+      <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="C3" t="n">
-        <v>57445.80078124999</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3483.59375</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2299.171875</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1060.794379175146</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B3">
+        <v>7.5</v>
+      </c>
+      <c r="C3">
+        <v>33005.474000000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4961.25</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2079</v>
+      </c>
+      <c r="F3">
+        <v>1252.5138999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>98478.51562499997</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5971.875</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3941.4375</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1818.504650014537</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>56860.395799999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>8505</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3564</v>
+      </c>
+      <c r="F4">
+        <v>2147.1667000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="C5" t="n">
-        <v>123098.14453125</v>
-      </c>
-      <c r="D5" t="n">
-        <v>7464.84375</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4926.796875</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2273.13081251817</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="B5">
+        <v>22.5</v>
+      </c>
+      <c r="C5">
+        <v>70207.349000000002</v>
+      </c>
+      <c r="D5" s="4">
+        <v>10631.25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4455</v>
+      </c>
+      <c r="F5">
+        <v>2683.9582999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>35</v>
-      </c>
-      <c r="C6" t="n">
-        <v>131304.6875</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7962.5</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5255.25</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2424.672866686049</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="B6">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>75461.333299999998</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11340</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4752</v>
+      </c>
+      <c r="F6">
+        <v>2862.8888999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>43.75</v>
-      </c>
-      <c r="C7" t="n">
-        <v>123098.14453125</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7464.84375</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4926.796875</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2273.13081251817</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="B7">
+        <v>37.5</v>
+      </c>
+      <c r="C7">
+        <v>70207.349000000002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>10631.25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4455</v>
+      </c>
+      <c r="F7">
+        <v>2683.9582999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>56860.395799999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8505</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3564</v>
+      </c>
+      <c r="F8">
+        <v>2147.1667000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>52.5</v>
       </c>
-      <c r="C8" t="n">
-        <v>98478.51562499997</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5971.875</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3941.4375</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1818.504650014537</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>61.25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>57445.80078124999</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3483.59375</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2299.171875</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1060.794379175146</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="C9">
+        <v>33005.474000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4961.25</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2079</v>
+      </c>
+      <c r="F9">
+        <v>1252.5138999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>70</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2">
+        <v>-7.6400000000000002E-11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-1.5429999999999999E-11</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2.2160000000000001E-11</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-2.6499999999999998E-12</v>
       </c>
     </row>
   </sheetData>
